--- a/po_analysis_by_asin/B0BH7GTY9C_po_data.xlsx
+++ b/po_analysis_by_asin/B0BH7GTY9C_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,217 +452,577 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>9090</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>864</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45320</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>1548</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45390</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>3576</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45404</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45418</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>1332</v>
+        <v>864</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45425</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>300</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45432</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>2856</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45439</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>492</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45453</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>3180</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45460</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>684</v>
+        <v>798</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45467</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>468</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45481</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>1428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45488</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>900</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45502</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>1392</v>
+        <v>660</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45509</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>48</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45516</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>924</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45523</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>2220</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45537</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>756</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45544</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>2592</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45551</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>2988</v>
+        <v>774</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45558</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>4776</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45565</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>1656</v>
+        <v>852</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45579</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>5688</v>
+        <v>648</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45586</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>4632</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45593</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>1284</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45628</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B28" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>9090</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>4776</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5688</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>4632</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B73" t="n">
         <v>24</v>
       </c>
     </row>
@@ -677,7 +1037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,73 +1059,169 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>11502</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45383</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>3588</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45413</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>4980</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45444</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>4332</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45474</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>2328</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45505</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>4584</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45536</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>11112</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45566</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>13260</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45627</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B10" t="n">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8376</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>11502</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>11112</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>13260</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45657.99999999999</v>
+      </c>
+      <c r="B22" t="n">
         <v>24</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BH7GTY9C_po_data.xlsx
+++ b/po_analysis_by_asin/B0BH7GTY9C_po_data.xlsx
@@ -647,7 +647,7 @@
         <v>45123.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>558</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27">
@@ -655,7 +655,7 @@
         <v>45130.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>1248</v>
+        <v>720</v>
       </c>
     </row>
     <row r="28">
@@ -663,7 +663,7 @@
         <v>45137.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>780</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
@@ -1110,7 +1110,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>3234</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="9">

--- a/po_analysis_by_asin/B0BH7GTY9C_po_data.xlsx
+++ b/po_analysis_by_asin/B0BH7GTY9C_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1054,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1223,6 +1224,1167 @@
       </c>
       <c r="B22" t="n">
         <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>228</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1527.259782589761</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2022.401680785223</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>250</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1585.203210458682</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1954.322133764208</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>271</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1497.655306065355</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2085.692818848449</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>293</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1583.223926276966</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1985.00095960814</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>314</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1438.909896596134</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2072.442272331328</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>379</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1369.261460358188</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2175.99736853452</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>401</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1237.784866710784</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2203.904643081566</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>422</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1245.977495907375</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2277.793815089445</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>465</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1198.208086466249</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2212.66029310278</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>487</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1333.350385121826</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2437.904314467292</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>508</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1101.764959205173</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2286.077369983473</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>530</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1180.961397094168</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2288.514873610382</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>552</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1223.925826488454</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2463.045052996644</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>573</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1133.965287057402</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2383.692773590765</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>595</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1075.703826688562</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2408.634670524624</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>616</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-1104.756268494925</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2416.316974088471</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>638</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1174.507857015457</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2338.32068711844</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>659</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1129.716880968276</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2414.527609582547</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>681</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1044.066292832892</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2420.063035655825</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>703</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-879.8830952969346</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2490.52183995366</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>724</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1115.366766295619</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2398.151738184424</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>746</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1058.585896767193</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2402.581870321799</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>767</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1093.838664489378</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2466.507800991703</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>789</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-922.3981950985269</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2657.612695936684</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>810</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1100.974478285316</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2637.796588794017</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>832</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-975.6147510478107</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2455.01551704653</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>854</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-976.5287285466106</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2582.971259029028</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>875</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-873.8291442066546</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2736.258341217553</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>897</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-982.6864648678048</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2623.196066371137</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>918</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-971.5986648792223</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2657.13898030842</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>961</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-814.6566541336845</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2627.704399610978</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>983</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-728.0196900899999</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2647.431197222932</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-812.9953602347631</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2732.081905018562</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1026</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-706.1690271562345</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2634.891882804784</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1048</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-719.6585743772013</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2676.378086098766</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1069</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-784.1199586061446</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2923.158034167509</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1091</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-734.8634029123752</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2893.666031542527</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1112</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-715.7578291285679</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3046.992367455227</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1134</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-732.494890699954</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2908.716943373037</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1156</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-694.5034907710918</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2841.504645748979</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1177</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-611.1147492329956</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2940.464669833027</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1199</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-518.4952236575684</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3003.787983901716</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1242</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-507.3027945773366</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3088.444601776509</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1263</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-526.7150626120736</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3080.083693120826</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1285</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-447.141643431487</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3118.574527289038</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-360.5170763840422</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3149.435165964163</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1393</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-240.8868880377538</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3126.672066149968</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1436</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-310.115792288789</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3121.063145690302</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1652</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-34.93838985389919</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3402.368048248141</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1695</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-11.57956975653138</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3473.89662329242</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1738</v>
+      </c>
+      <c r="C52" t="n">
+        <v>56.74992056956052</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3392.018101072607</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1760</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-54.74645631245239</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3736.060700747733</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1781</v>
+      </c>
+      <c r="C54" t="n">
+        <v>101.932841951017</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3547.397511449508</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1803</v>
+      </c>
+      <c r="C55" t="n">
+        <v>48.68718517799168</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3711.923219944881</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1846</v>
+      </c>
+      <c r="C56" t="n">
+        <v>129.2866984833626</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3545.487221479386</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1867</v>
+      </c>
+      <c r="C57" t="n">
+        <v>101.4809383241974</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3606.763648990505</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1889</v>
+      </c>
+      <c r="C58" t="n">
+        <v>90.14131879791232</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3527.936575344053</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1932</v>
+      </c>
+      <c r="C59" t="n">
+        <v>156.8976092064261</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3719.296188449637</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1954</v>
+      </c>
+      <c r="C60" t="n">
+        <v>191.773833828613</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3820.525763930658</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C61" t="n">
+        <v>267.9537809749264</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3754.077032854536</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C62" t="n">
+        <v>204.3969606522896</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3682.853925084066</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2040</v>
+      </c>
+      <c r="C63" t="n">
+        <v>332.5109432260878</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3801.982147971204</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2062</v>
+      </c>
+      <c r="C64" t="n">
+        <v>283.6470070232545</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3808.419024196115</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2105</v>
+      </c>
+      <c r="C65" t="n">
+        <v>308.4687027990515</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3891.338238619043</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2126</v>
+      </c>
+      <c r="C66" t="n">
+        <v>480.7509874053063</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3876.722498612969</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2148</v>
+      </c>
+      <c r="C67" t="n">
+        <v>418.2077135670474</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3925.806948507016</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2169</v>
+      </c>
+      <c r="C68" t="n">
+        <v>402.5439100758326</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4011.788035690754</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2191</v>
+      </c>
+      <c r="C69" t="n">
+        <v>463.8460885578023</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3977.09590536891</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2234</v>
+      </c>
+      <c r="C70" t="n">
+        <v>489.6136679254113</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4154.467860958982</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2256</v>
+      </c>
+      <c r="C71" t="n">
+        <v>431.6568327304701</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4059.176630309345</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2277</v>
+      </c>
+      <c r="C72" t="n">
+        <v>555.1259433064483</v>
+      </c>
+      <c r="D72" t="n">
+        <v>4036.622097236363</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C73" t="n">
+        <v>546.8867293423654</v>
+      </c>
+      <c r="D73" t="n">
+        <v>4075.372384505884</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2407</v>
+      </c>
+      <c r="C74" t="n">
+        <v>537.340280882801</v>
+      </c>
+      <c r="D74" t="n">
+        <v>4200.654035333809</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2428</v>
+      </c>
+      <c r="C75" t="n">
+        <v>686.5052666017937</v>
+      </c>
+      <c r="D75" t="n">
+        <v>4077.558430994822</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2450</v>
+      </c>
+      <c r="C76" t="n">
+        <v>739.2476615599994</v>
+      </c>
+      <c r="D76" t="n">
+        <v>4233.819636629078</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2471</v>
+      </c>
+      <c r="C77" t="n">
+        <v>591.4493853546702</v>
+      </c>
+      <c r="D77" t="n">
+        <v>4097.264039295113</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2493</v>
+      </c>
+      <c r="C78" t="n">
+        <v>744.8088334443081</v>
+      </c>
+      <c r="D78" t="n">
+        <v>4202.57701224743</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2515</v>
+      </c>
+      <c r="C79" t="n">
+        <v>686.4949647378354</v>
+      </c>
+      <c r="D79" t="n">
+        <v>4188.683702369289</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2536</v>
+      </c>
+      <c r="C80" t="n">
+        <v>795.5943321644613</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4306.034302376303</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2558</v>
+      </c>
+      <c r="C81" t="n">
+        <v>821.4519194078587</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4296.344546364709</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BH7GTY9C_po_data.xlsx
+++ b/po_analysis_by_asin/B0BH7GTY9C_po_data.xlsx
@@ -1237,7 +1237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1256,16 +1256,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1274,12 +1264,6 @@
       <c r="B2" t="n">
         <v>228</v>
       </c>
-      <c r="C2" t="n">
-        <v>-1527.259782589761</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2022.401680785223</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1288,12 +1272,6 @@
       <c r="B3" t="n">
         <v>250</v>
       </c>
-      <c r="C3" t="n">
-        <v>-1585.203210458682</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1954.322133764208</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1302,12 +1280,6 @@
       <c r="B4" t="n">
         <v>271</v>
       </c>
-      <c r="C4" t="n">
-        <v>-1497.655306065355</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2085.692818848449</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1316,12 +1288,6 @@
       <c r="B5" t="n">
         <v>293</v>
       </c>
-      <c r="C5" t="n">
-        <v>-1583.223926276966</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1985.00095960814</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1330,12 +1296,6 @@
       <c r="B6" t="n">
         <v>314</v>
       </c>
-      <c r="C6" t="n">
-        <v>-1438.909896596134</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2072.442272331328</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1344,12 +1304,6 @@
       <c r="B7" t="n">
         <v>379</v>
       </c>
-      <c r="C7" t="n">
-        <v>-1369.261460358188</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2175.99736853452</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1358,12 +1312,6 @@
       <c r="B8" t="n">
         <v>401</v>
       </c>
-      <c r="C8" t="n">
-        <v>-1237.784866710784</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2203.904643081566</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1372,12 +1320,6 @@
       <c r="B9" t="n">
         <v>422</v>
       </c>
-      <c r="C9" t="n">
-        <v>-1245.977495907375</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2277.793815089445</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1386,12 +1328,6 @@
       <c r="B10" t="n">
         <v>465</v>
       </c>
-      <c r="C10" t="n">
-        <v>-1198.208086466249</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2212.66029310278</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1400,12 +1336,6 @@
       <c r="B11" t="n">
         <v>487</v>
       </c>
-      <c r="C11" t="n">
-        <v>-1333.350385121826</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2437.904314467292</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1414,12 +1344,6 @@
       <c r="B12" t="n">
         <v>508</v>
       </c>
-      <c r="C12" t="n">
-        <v>-1101.764959205173</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2286.077369983473</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1428,12 +1352,6 @@
       <c r="B13" t="n">
         <v>530</v>
       </c>
-      <c r="C13" t="n">
-        <v>-1180.961397094168</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2288.514873610382</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1442,12 +1360,6 @@
       <c r="B14" t="n">
         <v>552</v>
       </c>
-      <c r="C14" t="n">
-        <v>-1223.925826488454</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2463.045052996644</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1456,12 +1368,6 @@
       <c r="B15" t="n">
         <v>573</v>
       </c>
-      <c r="C15" t="n">
-        <v>-1133.965287057402</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2383.692773590765</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1470,12 +1376,6 @@
       <c r="B16" t="n">
         <v>595</v>
       </c>
-      <c r="C16" t="n">
-        <v>-1075.703826688562</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2408.634670524624</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1484,12 +1384,6 @@
       <c r="B17" t="n">
         <v>616</v>
       </c>
-      <c r="C17" t="n">
-        <v>-1104.756268494925</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2416.316974088471</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1498,12 +1392,6 @@
       <c r="B18" t="n">
         <v>638</v>
       </c>
-      <c r="C18" t="n">
-        <v>-1174.507857015457</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2338.32068711844</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1512,12 +1400,6 @@
       <c r="B19" t="n">
         <v>659</v>
       </c>
-      <c r="C19" t="n">
-        <v>-1129.716880968276</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2414.527609582547</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1526,12 +1408,6 @@
       <c r="B20" t="n">
         <v>681</v>
       </c>
-      <c r="C20" t="n">
-        <v>-1044.066292832892</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2420.063035655825</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1540,12 +1416,6 @@
       <c r="B21" t="n">
         <v>703</v>
       </c>
-      <c r="C21" t="n">
-        <v>-879.8830952969346</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2490.52183995366</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1554,12 +1424,6 @@
       <c r="B22" t="n">
         <v>724</v>
       </c>
-      <c r="C22" t="n">
-        <v>-1115.366766295619</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2398.151738184424</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1568,12 +1432,6 @@
       <c r="B23" t="n">
         <v>746</v>
       </c>
-      <c r="C23" t="n">
-        <v>-1058.585896767193</v>
-      </c>
-      <c r="D23" t="n">
-        <v>2402.581870321799</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1582,12 +1440,6 @@
       <c r="B24" t="n">
         <v>767</v>
       </c>
-      <c r="C24" t="n">
-        <v>-1093.838664489378</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2466.507800991703</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1596,12 +1448,6 @@
       <c r="B25" t="n">
         <v>789</v>
       </c>
-      <c r="C25" t="n">
-        <v>-922.3981950985269</v>
-      </c>
-      <c r="D25" t="n">
-        <v>2657.612695936684</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1610,12 +1456,6 @@
       <c r="B26" t="n">
         <v>810</v>
       </c>
-      <c r="C26" t="n">
-        <v>-1100.974478285316</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2637.796588794017</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1624,12 +1464,6 @@
       <c r="B27" t="n">
         <v>832</v>
       </c>
-      <c r="C27" t="n">
-        <v>-975.6147510478107</v>
-      </c>
-      <c r="D27" t="n">
-        <v>2455.01551704653</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1638,12 +1472,6 @@
       <c r="B28" t="n">
         <v>854</v>
       </c>
-      <c r="C28" t="n">
-        <v>-976.5287285466106</v>
-      </c>
-      <c r="D28" t="n">
-        <v>2582.971259029028</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1652,12 +1480,6 @@
       <c r="B29" t="n">
         <v>875</v>
       </c>
-      <c r="C29" t="n">
-        <v>-873.8291442066546</v>
-      </c>
-      <c r="D29" t="n">
-        <v>2736.258341217553</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1666,12 +1488,6 @@
       <c r="B30" t="n">
         <v>897</v>
       </c>
-      <c r="C30" t="n">
-        <v>-982.6864648678048</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2623.196066371137</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1680,12 +1496,6 @@
       <c r="B31" t="n">
         <v>918</v>
       </c>
-      <c r="C31" t="n">
-        <v>-971.5986648792223</v>
-      </c>
-      <c r="D31" t="n">
-        <v>2657.13898030842</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1694,12 +1504,6 @@
       <c r="B32" t="n">
         <v>961</v>
       </c>
-      <c r="C32" t="n">
-        <v>-814.6566541336845</v>
-      </c>
-      <c r="D32" t="n">
-        <v>2627.704399610978</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1708,12 +1512,6 @@
       <c r="B33" t="n">
         <v>983</v>
       </c>
-      <c r="C33" t="n">
-        <v>-728.0196900899999</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2647.431197222932</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1722,12 +1520,6 @@
       <c r="B34" t="n">
         <v>1005</v>
       </c>
-      <c r="C34" t="n">
-        <v>-812.9953602347631</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2732.081905018562</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1736,12 +1528,6 @@
       <c r="B35" t="n">
         <v>1026</v>
       </c>
-      <c r="C35" t="n">
-        <v>-706.1690271562345</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2634.891882804784</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1750,12 +1536,6 @@
       <c r="B36" t="n">
         <v>1048</v>
       </c>
-      <c r="C36" t="n">
-        <v>-719.6585743772013</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2676.378086098766</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1764,12 +1544,6 @@
       <c r="B37" t="n">
         <v>1069</v>
       </c>
-      <c r="C37" t="n">
-        <v>-784.1199586061446</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2923.158034167509</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1778,12 +1552,6 @@
       <c r="B38" t="n">
         <v>1091</v>
       </c>
-      <c r="C38" t="n">
-        <v>-734.8634029123752</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2893.666031542527</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1792,12 +1560,6 @@
       <c r="B39" t="n">
         <v>1112</v>
       </c>
-      <c r="C39" t="n">
-        <v>-715.7578291285679</v>
-      </c>
-      <c r="D39" t="n">
-        <v>3046.992367455227</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1806,12 +1568,6 @@
       <c r="B40" t="n">
         <v>1134</v>
       </c>
-      <c r="C40" t="n">
-        <v>-732.494890699954</v>
-      </c>
-      <c r="D40" t="n">
-        <v>2908.716943373037</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1820,12 +1576,6 @@
       <c r="B41" t="n">
         <v>1156</v>
       </c>
-      <c r="C41" t="n">
-        <v>-694.5034907710918</v>
-      </c>
-      <c r="D41" t="n">
-        <v>2841.504645748979</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1834,12 +1584,6 @@
       <c r="B42" t="n">
         <v>1177</v>
       </c>
-      <c r="C42" t="n">
-        <v>-611.1147492329956</v>
-      </c>
-      <c r="D42" t="n">
-        <v>2940.464669833027</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1848,12 +1592,6 @@
       <c r="B43" t="n">
         <v>1199</v>
       </c>
-      <c r="C43" t="n">
-        <v>-518.4952236575684</v>
-      </c>
-      <c r="D43" t="n">
-        <v>3003.787983901716</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1862,12 +1600,6 @@
       <c r="B44" t="n">
         <v>1242</v>
       </c>
-      <c r="C44" t="n">
-        <v>-507.3027945773366</v>
-      </c>
-      <c r="D44" t="n">
-        <v>3088.444601776509</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1876,12 +1608,6 @@
       <c r="B45" t="n">
         <v>1263</v>
       </c>
-      <c r="C45" t="n">
-        <v>-526.7150626120736</v>
-      </c>
-      <c r="D45" t="n">
-        <v>3080.083693120826</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1890,12 +1616,6 @@
       <c r="B46" t="n">
         <v>1285</v>
       </c>
-      <c r="C46" t="n">
-        <v>-447.141643431487</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3118.574527289038</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1904,12 +1624,6 @@
       <c r="B47" t="n">
         <v>1350</v>
       </c>
-      <c r="C47" t="n">
-        <v>-360.5170763840422</v>
-      </c>
-      <c r="D47" t="n">
-        <v>3149.435165964163</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1918,12 +1632,6 @@
       <c r="B48" t="n">
         <v>1393</v>
       </c>
-      <c r="C48" t="n">
-        <v>-240.8868880377538</v>
-      </c>
-      <c r="D48" t="n">
-        <v>3126.672066149968</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1932,12 +1640,6 @@
       <c r="B49" t="n">
         <v>1436</v>
       </c>
-      <c r="C49" t="n">
-        <v>-310.115792288789</v>
-      </c>
-      <c r="D49" t="n">
-        <v>3121.063145690302</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1946,12 +1648,6 @@
       <c r="B50" t="n">
         <v>1652</v>
       </c>
-      <c r="C50" t="n">
-        <v>-34.93838985389919</v>
-      </c>
-      <c r="D50" t="n">
-        <v>3402.368048248141</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1960,12 +1656,6 @@
       <c r="B51" t="n">
         <v>1695</v>
       </c>
-      <c r="C51" t="n">
-        <v>-11.57956975653138</v>
-      </c>
-      <c r="D51" t="n">
-        <v>3473.89662329242</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1974,12 +1664,6 @@
       <c r="B52" t="n">
         <v>1738</v>
       </c>
-      <c r="C52" t="n">
-        <v>56.74992056956052</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3392.018101072607</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1988,12 +1672,6 @@
       <c r="B53" t="n">
         <v>1760</v>
       </c>
-      <c r="C53" t="n">
-        <v>-54.74645631245239</v>
-      </c>
-      <c r="D53" t="n">
-        <v>3736.060700747733</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -2002,12 +1680,6 @@
       <c r="B54" t="n">
         <v>1781</v>
       </c>
-      <c r="C54" t="n">
-        <v>101.932841951017</v>
-      </c>
-      <c r="D54" t="n">
-        <v>3547.397511449508</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -2016,12 +1688,6 @@
       <c r="B55" t="n">
         <v>1803</v>
       </c>
-      <c r="C55" t="n">
-        <v>48.68718517799168</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3711.923219944881</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -2030,12 +1696,6 @@
       <c r="B56" t="n">
         <v>1846</v>
       </c>
-      <c r="C56" t="n">
-        <v>129.2866984833626</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3545.487221479386</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -2044,12 +1704,6 @@
       <c r="B57" t="n">
         <v>1867</v>
       </c>
-      <c r="C57" t="n">
-        <v>101.4809383241974</v>
-      </c>
-      <c r="D57" t="n">
-        <v>3606.763648990505</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -2058,12 +1712,6 @@
       <c r="B58" t="n">
         <v>1889</v>
       </c>
-      <c r="C58" t="n">
-        <v>90.14131879791232</v>
-      </c>
-      <c r="D58" t="n">
-        <v>3527.936575344053</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -2072,12 +1720,6 @@
       <c r="B59" t="n">
         <v>1932</v>
       </c>
-      <c r="C59" t="n">
-        <v>156.8976092064261</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3719.296188449637</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2086,12 +1728,6 @@
       <c r="B60" t="n">
         <v>1954</v>
       </c>
-      <c r="C60" t="n">
-        <v>191.773833828613</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3820.525763930658</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2100,12 +1736,6 @@
       <c r="B61" t="n">
         <v>1997</v>
       </c>
-      <c r="C61" t="n">
-        <v>267.9537809749264</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3754.077032854536</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2114,12 +1744,6 @@
       <c r="B62" t="n">
         <v>2018</v>
       </c>
-      <c r="C62" t="n">
-        <v>204.3969606522896</v>
-      </c>
-      <c r="D62" t="n">
-        <v>3682.853925084066</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2128,12 +1752,6 @@
       <c r="B63" t="n">
         <v>2040</v>
       </c>
-      <c r="C63" t="n">
-        <v>332.5109432260878</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3801.982147971204</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2142,12 +1760,6 @@
       <c r="B64" t="n">
         <v>2062</v>
       </c>
-      <c r="C64" t="n">
-        <v>283.6470070232545</v>
-      </c>
-      <c r="D64" t="n">
-        <v>3808.419024196115</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2156,12 +1768,6 @@
       <c r="B65" t="n">
         <v>2105</v>
       </c>
-      <c r="C65" t="n">
-        <v>308.4687027990515</v>
-      </c>
-      <c r="D65" t="n">
-        <v>3891.338238619043</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2170,12 +1776,6 @@
       <c r="B66" t="n">
         <v>2126</v>
       </c>
-      <c r="C66" t="n">
-        <v>480.7509874053063</v>
-      </c>
-      <c r="D66" t="n">
-        <v>3876.722498612969</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2184,12 +1784,6 @@
       <c r="B67" t="n">
         <v>2148</v>
       </c>
-      <c r="C67" t="n">
-        <v>418.2077135670474</v>
-      </c>
-      <c r="D67" t="n">
-        <v>3925.806948507016</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2198,12 +1792,6 @@
       <c r="B68" t="n">
         <v>2169</v>
       </c>
-      <c r="C68" t="n">
-        <v>402.5439100758326</v>
-      </c>
-      <c r="D68" t="n">
-        <v>4011.788035690754</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2212,12 +1800,6 @@
       <c r="B69" t="n">
         <v>2191</v>
       </c>
-      <c r="C69" t="n">
-        <v>463.8460885578023</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3977.09590536891</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2226,12 +1808,6 @@
       <c r="B70" t="n">
         <v>2234</v>
       </c>
-      <c r="C70" t="n">
-        <v>489.6136679254113</v>
-      </c>
-      <c r="D70" t="n">
-        <v>4154.467860958982</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -2240,12 +1816,6 @@
       <c r="B71" t="n">
         <v>2256</v>
       </c>
-      <c r="C71" t="n">
-        <v>431.6568327304701</v>
-      </c>
-      <c r="D71" t="n">
-        <v>4059.176630309345</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -2254,12 +1824,6 @@
       <c r="B72" t="n">
         <v>2277</v>
       </c>
-      <c r="C72" t="n">
-        <v>555.1259433064483</v>
-      </c>
-      <c r="D72" t="n">
-        <v>4036.622097236363</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -2268,12 +1832,6 @@
       <c r="B73" t="n">
         <v>2385</v>
       </c>
-      <c r="C73" t="n">
-        <v>546.8867293423654</v>
-      </c>
-      <c r="D73" t="n">
-        <v>4075.372384505884</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -2282,12 +1840,6 @@
       <c r="B74" t="n">
         <v>2407</v>
       </c>
-      <c r="C74" t="n">
-        <v>537.340280882801</v>
-      </c>
-      <c r="D74" t="n">
-        <v>4200.654035333809</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -2296,12 +1848,6 @@
       <c r="B75" t="n">
         <v>2428</v>
       </c>
-      <c r="C75" t="n">
-        <v>686.5052666017937</v>
-      </c>
-      <c r="D75" t="n">
-        <v>4077.558430994822</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -2310,12 +1856,6 @@
       <c r="B76" t="n">
         <v>2450</v>
       </c>
-      <c r="C76" t="n">
-        <v>739.2476615599994</v>
-      </c>
-      <c r="D76" t="n">
-        <v>4233.819636629078</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -2324,12 +1864,6 @@
       <c r="B77" t="n">
         <v>2471</v>
       </c>
-      <c r="C77" t="n">
-        <v>591.4493853546702</v>
-      </c>
-      <c r="D77" t="n">
-        <v>4097.264039295113</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -2338,12 +1872,6 @@
       <c r="B78" t="n">
         <v>2493</v>
       </c>
-      <c r="C78" t="n">
-        <v>744.8088334443081</v>
-      </c>
-      <c r="D78" t="n">
-        <v>4202.57701224743</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -2352,12 +1880,6 @@
       <c r="B79" t="n">
         <v>2515</v>
       </c>
-      <c r="C79" t="n">
-        <v>686.4949647378354</v>
-      </c>
-      <c r="D79" t="n">
-        <v>4188.683702369289</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -2366,12 +1888,6 @@
       <c r="B80" t="n">
         <v>2536</v>
       </c>
-      <c r="C80" t="n">
-        <v>795.5943321644613</v>
-      </c>
-      <c r="D80" t="n">
-        <v>4306.034302376303</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -2379,12 +1895,6 @@
       </c>
       <c r="B81" t="n">
         <v>2558</v>
-      </c>
-      <c r="C81" t="n">
-        <v>821.4519194078587</v>
-      </c>
-      <c r="D81" t="n">
-        <v>4296.344546364709</v>
       </c>
     </row>
   </sheetData>
